--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD14_Plazos_150414.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD14_Plazos_150414.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -306,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -355,6 +355,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -367,8 +373,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,15 +681,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -781,124 +794,116 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="16" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="16" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="14" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="9" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="9"/>
+        <v>15</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -906,14 +911,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -928,7 +935,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
@@ -938,57 +945,53 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -996,59 +999,64 @@
         <v>14</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="12" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
+    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="12" t="s">
         <v>33</v>
       </c>
@@ -1056,35 +1064,49 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="9"/>
+        <v>15</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="12"/>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
